--- a/AAII_Financials/Quarterly/VERF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VERF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>VERF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,102 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>600</v>
       </c>
       <c r="G8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I8" s="3">
         <v>500</v>
@@ -782,8 +789,14 @@
       <c r="Q8" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>500</v>
+      </c>
+      <c r="S8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1146,25 +1199,31 @@
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F18" s="3">
         <v>500</v>
       </c>
       <c r="G18" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H18" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I18" s="3">
         <v>400</v>
@@ -1193,8 +1252,14 @@
       <c r="Q18" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>400</v>
+      </c>
+      <c r="S18" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,25 +1277,27 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>-400</v>
       </c>
       <c r="G20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I20" s="3">
         <v>-300</v>
@@ -1254,13 +1321,19 @@
         <v>-300</v>
       </c>
       <c r="P20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1379,14 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1432,14 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1362,13 +1447,13 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>200</v>
@@ -1377,7 +1462,7 @@
         <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K23" s="3">
         <v>100</v>
@@ -1395,13 +1480,19 @@
         <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1427,14 +1518,14 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1442,13 +1533,19 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1521,14 +1624,14 @@
         <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
         <v>100</v>
       </c>
@@ -1536,13 +1639,19 @@
         <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1568,14 +1677,14 @@
         <v>100</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
         <v>100</v>
       </c>
@@ -1583,13 +1692,19 @@
         <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,25 +1909,31 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>400</v>
       </c>
       <c r="G32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I32" s="3">
         <v>300</v>
@@ -1818,13 +1957,19 @@
         <v>300</v>
       </c>
       <c r="P32" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>300</v>
+      </c>
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1850,14 +1995,14 @@
         <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
         <v>100</v>
       </c>
@@ -1865,13 +2010,19 @@
         <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +2068,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1944,14 +2101,14 @@
         <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
         <v>100</v>
       </c>
@@ -1959,65 +2116,77 @@
         <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,102 +2225,116 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F42" s="3">
         <v>9100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>8300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>6800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>6000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>6700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>8900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>7800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>8100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>5600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>8600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>8900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>9400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,13 +2592,19 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E48" s="3">
         <v>1200</v>
@@ -2422,16 +2637,22 @@
         <v>1200</v>
       </c>
       <c r="O48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>54900</v>
+      </c>
+      <c r="F54" s="3">
         <v>54800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>55300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>55000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>53700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>53200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>55300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>56500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>56000</v>
       </c>
       <c r="L54" s="3">
         <v>56500</v>
       </c>
       <c r="M54" s="3">
+        <v>56000</v>
+      </c>
+      <c r="N54" s="3">
+        <v>56500</v>
+      </c>
+      <c r="O54" s="3">
         <v>53700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>55700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>57600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>57600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +3058,14 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +3111,14 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,8 +3164,14 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3217,14 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F66" s="3">
         <v>42700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>43400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>43100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>42100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>41500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>43700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>45100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>44600</v>
       </c>
       <c r="L66" s="3">
         <v>45100</v>
       </c>
       <c r="M66" s="3">
+        <v>44600</v>
+      </c>
+      <c r="N66" s="3">
+        <v>45100</v>
+      </c>
+      <c r="O66" s="3">
         <v>42500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>44500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>46200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>46100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3768,14 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3439,22 +3786,22 @@
         <v>9400</v>
       </c>
       <c r="F72" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>9400</v>
+      </c>
+      <c r="H72" s="3">
         <v>9300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>9200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>9200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>9000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>8900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>8800</v>
       </c>
       <c r="L72" s="3">
         <v>8900</v>
@@ -3463,19 +3810,25 @@
         <v>8800</v>
       </c>
       <c r="N72" s="3">
+        <v>8900</v>
+      </c>
+      <c r="O72" s="3">
+        <v>8800</v>
+      </c>
+      <c r="P72" s="3">
         <v>8700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>8700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>8600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,34 +3980,40 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F76" s="3">
         <v>12100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>12000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>11800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>11700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>11700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>11500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>11400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>11300</v>
       </c>
       <c r="L76" s="3">
         <v>11400</v>
@@ -3651,19 +4022,25 @@
         <v>11300</v>
       </c>
       <c r="N76" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="O76" s="3">
         <v>11300</v>
       </c>
       <c r="P76" s="3">
+        <v>11200</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>11300</v>
+      </c>
+      <c r="R76" s="3">
         <v>11500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +4086,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3788,14 +4177,14 @@
         <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
         <v>100</v>
       </c>
@@ -3803,13 +4192,19 @@
         <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VERF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VERF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>VERF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,93 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,19 +762,19 @@
         <v>500</v>
       </c>
       <c r="F8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H8" s="3">
         <v>600</v>
       </c>
       <c r="I8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K8" s="3">
         <v>500</v>
@@ -795,8 +803,14 @@
       <c r="S8" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>500</v>
+      </c>
+      <c r="U8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1204,10 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1205,8 +1259,14 @@
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,19 +1277,19 @@
         <v>400</v>
       </c>
       <c r="F18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H18" s="3">
         <v>500</v>
       </c>
       <c r="I18" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J18" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K18" s="3">
         <v>400</v>
@@ -1258,8 +1318,14 @@
       <c r="S18" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>400</v>
+      </c>
+      <c r="U18" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,31 +1345,33 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
         <v>-300</v>
       </c>
       <c r="F20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H20" s="3">
         <v>-400</v>
       </c>
       <c r="I20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K20" s="3">
         <v>-300</v>
@@ -1327,13 +1395,19 @@
         <v>-300</v>
       </c>
       <c r="R20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1459,14 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1518,14 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1453,13 +1539,13 @@
         <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>100</v>
       </c>
       <c r="J23" s="3">
         <v>200</v>
@@ -1468,7 +1554,7 @@
         <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M23" s="3">
         <v>100</v>
@@ -1486,13 +1572,19 @@
         <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1524,14 +1616,14 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1539,13 +1631,19 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1695,14 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1630,14 +1734,14 @@
         <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
@@ -1645,13 +1749,19 @@
         <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1683,14 +1793,14 @@
         <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
         <v>100</v>
       </c>
@@ -1698,13 +1808,19 @@
         <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,31 +2049,37 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E32" s="3">
         <v>300</v>
       </c>
       <c r="F32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H32" s="3">
         <v>400</v>
       </c>
       <c r="I32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K32" s="3">
         <v>300</v>
@@ -1963,13 +2103,19 @@
         <v>300</v>
       </c>
       <c r="R32" s="3">
+        <v>300</v>
+      </c>
+      <c r="S32" s="3">
+        <v>300</v>
+      </c>
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2001,14 +2147,14 @@
         <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
         <v>100</v>
       </c>
@@ -2016,13 +2162,19 @@
         <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2226,14 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2107,14 +2265,14 @@
         <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
         <v>100</v>
       </c>
@@ -2122,71 +2280,83 @@
         <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2399,128 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F42" s="3">
         <v>8600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>7800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>9100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>8300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>6800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>6000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>6700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>8900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>7800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>8100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>5600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>8600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>8900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>9400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2631,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2690,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2749,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,10 +2823,10 @@
         <v>1100</v>
       </c>
       <c r="E48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G48" s="3">
         <v>1200</v>
@@ -2643,16 +2859,22 @@
         <v>1200</v>
       </c>
       <c r="Q48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S48" s="3">
         <v>1300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>59400</v>
+      </c>
+      <c r="F54" s="3">
         <v>56300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>54900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>54800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>55300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>55000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>53700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>53200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>55300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>56500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>56000</v>
       </c>
       <c r="N54" s="3">
         <v>56500</v>
       </c>
       <c r="O54" s="3">
+        <v>56000</v>
+      </c>
+      <c r="P54" s="3">
+        <v>56500</v>
+      </c>
+      <c r="Q54" s="3">
         <v>53700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>55700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>57600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>57600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3271,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3326,14 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3385,14 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3444,14 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3503,14 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F66" s="3">
         <v>44300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>43000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>42700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>43400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>43100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>42100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>41500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>43700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>45100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>44600</v>
       </c>
       <c r="N66" s="3">
         <v>45100</v>
       </c>
       <c r="O66" s="3">
+        <v>44600</v>
+      </c>
+      <c r="P66" s="3">
+        <v>45100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>42500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>44500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>46200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>46100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,16 +4116,22 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="E72" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="F72" s="3">
         <v>9500</v>
@@ -3792,22 +4140,22 @@
         <v>9400</v>
       </c>
       <c r="H72" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J72" s="3">
         <v>9300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>9200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>9200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>9000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>8900</v>
-      </c>
-      <c r="M72" s="3">
-        <v>8800</v>
       </c>
       <c r="N72" s="3">
         <v>8900</v>
@@ -3816,19 +4164,25 @@
         <v>8800</v>
       </c>
       <c r="P72" s="3">
+        <v>8900</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>8800</v>
+      </c>
+      <c r="R72" s="3">
         <v>8700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>8700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>8600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,40 +4352,46 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F76" s="3">
         <v>12000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>11900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>12100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>12000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>11800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>11700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>11700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>11500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>11400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>11300</v>
       </c>
       <c r="N76" s="3">
         <v>11400</v>
@@ -4028,19 +4400,25 @@
         <v>11300</v>
       </c>
       <c r="P76" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="Q76" s="3">
         <v>11300</v>
       </c>
       <c r="R76" s="3">
+        <v>11200</v>
+      </c>
+      <c r="S76" s="3">
+        <v>11300</v>
+      </c>
+      <c r="T76" s="3">
         <v>11500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4470,78 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4183,14 +4573,14 @@
         <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
         <v>100</v>
       </c>
@@ -4198,13 +4588,19 @@
         <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4970,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +5029,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5606,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5665,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5722,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VERF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VERF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>VERF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,101 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E8" s="3">
         <v>500</v>
@@ -768,7 +771,7 @@
         <v>500</v>
       </c>
       <c r="H8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I8" s="3">
         <v>600</v>
@@ -777,7 +780,7 @@
         <v>600</v>
       </c>
       <c r="K8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L8" s="3">
         <v>500</v>
@@ -809,8 +812,11 @@
       <c r="U8" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1265,13 +1291,16 @@
       <c r="U17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E18" s="3">
         <v>400</v>
@@ -1283,7 +1312,7 @@
         <v>400</v>
       </c>
       <c r="H18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I18" s="3">
         <v>500</v>
@@ -1292,7 +1321,7 @@
         <v>500</v>
       </c>
       <c r="K18" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L18" s="3">
         <v>400</v>
@@ -1324,8 +1353,11 @@
       <c r="U18" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,16 +1379,17 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>-300</v>
@@ -1365,7 +1398,7 @@
         <v>-300</v>
       </c>
       <c r="H20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I20" s="3">
         <v>-400</v>
@@ -1374,7 +1407,7 @@
         <v>-400</v>
       </c>
       <c r="K20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L20" s="3">
         <v>-300</v>
@@ -1401,13 +1434,16 @@
         <v>-300</v>
       </c>
       <c r="T20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U20" s="3">
         <v>-900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,13 +1563,16 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
@@ -1545,20 +1587,20 @@
         <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
         <v>200</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
         <v>100</v>
       </c>
@@ -1578,13 +1620,16 @@
         <v>100</v>
       </c>
       <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1622,11 +1667,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1637,13 +1682,16 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,13 +1749,16 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
@@ -1740,11 +1791,11 @@
         <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
         <v>100</v>
       </c>
@@ -1755,18 +1806,21 @@
         <v>100</v>
       </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
@@ -1799,11 +1853,11 @@
         <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
         <v>100</v>
       </c>
@@ -1814,13 +1868,16 @@
         <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,16 +2121,19 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>300</v>
@@ -2073,7 +2142,7 @@
         <v>300</v>
       </c>
       <c r="H32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I32" s="3">
         <v>400</v>
@@ -2082,7 +2151,7 @@
         <v>400</v>
       </c>
       <c r="K32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L32" s="3">
         <v>300</v>
@@ -2109,18 +2178,21 @@
         <v>300</v>
       </c>
       <c r="T32" s="3">
+        <v>300</v>
+      </c>
+      <c r="U32" s="3">
         <v>900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
@@ -2153,11 +2225,11 @@
         <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
         <v>100</v>
       </c>
@@ -2168,13 +2240,16 @@
         <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,13 +2307,16 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
@@ -2271,11 +2349,11 @@
         <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
         <v>100</v>
       </c>
@@ -2286,77 +2364,83 @@
         <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,126 +2486,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E41" s="3">
         <v>6000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>3300</v>
       </c>
       <c r="G41" s="3">
         <v>3300</v>
       </c>
       <c r="H41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>4200</v>
       </c>
       <c r="R41" s="3">
         <v>4200</v>
       </c>
       <c r="S41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="T41" s="3">
         <v>5600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E42" s="3">
         <v>14100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>13200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>8600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>7800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>8300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>9400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2829,7 +2936,7 @@
         <v>1100</v>
       </c>
       <c r="G48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H48" s="3">
         <v>1200</v>
@@ -2865,16 +2972,19 @@
         <v>1200</v>
       </c>
       <c r="S48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T48" s="3">
         <v>1300</v>
       </c>
       <c r="U48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E54" s="3">
         <v>60400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>59400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>56300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>54900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>54800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>55300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>55000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>53700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>53200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>55300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>56500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>56000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>56500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>53700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>55700</v>
-      </c>
-      <c r="S54" s="3">
-        <v>57600</v>
       </c>
       <c r="T54" s="3">
         <v>57600</v>
       </c>
       <c r="U54" s="3">
+        <v>57600</v>
+      </c>
+      <c r="V54" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,8 +3524,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3450,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3648,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E66" s="3">
         <v>48200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>47300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>44300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>42700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>42100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>44600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>45100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>42500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>44500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>46200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>46100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="E72" s="3">
         <v>9600</v>
       </c>
       <c r="F72" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G72" s="3">
         <v>9500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>9200</v>
       </c>
       <c r="L72" s="3">
         <v>9200</v>
       </c>
       <c r="M72" s="3">
+        <v>9200</v>
+      </c>
+      <c r="N72" s="3">
         <v>9000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8800</v>
-      </c>
-      <c r="R72" s="3">
-        <v>8700</v>
       </c>
       <c r="S72" s="3">
         <v>8700</v>
       </c>
       <c r="T72" s="3">
+        <v>8700</v>
+      </c>
+      <c r="U72" s="3">
         <v>8600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>11700</v>
       </c>
       <c r="L76" s="3">
         <v>11700</v>
       </c>
       <c r="M76" s="3">
+        <v>11700</v>
+      </c>
+      <c r="N76" s="3">
         <v>11500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,77 +4664,83 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
@@ -4579,11 +4773,11 @@
         <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
         <v>100</v>
       </c>
@@ -4594,13 +4788,16 @@
         <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5035,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5612,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VERF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VERF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>VERF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,7 +766,7 @@
         <v>400</v>
       </c>
       <c r="E8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F8" s="3">
         <v>500</v>
@@ -774,7 +778,7 @@
         <v>500</v>
       </c>
       <c r="I8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J8" s="3">
         <v>600</v>
@@ -783,7 +787,7 @@
         <v>600</v>
       </c>
       <c r="L8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M8" s="3">
         <v>500</v>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,7 +1333,7 @@
         <v>300</v>
       </c>
       <c r="E18" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F18" s="3">
         <v>400</v>
@@ -1315,7 +1345,7 @@
         <v>400</v>
       </c>
       <c r="I18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J18" s="3">
         <v>500</v>
@@ -1324,7 +1354,7 @@
         <v>500</v>
       </c>
       <c r="L18" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M18" s="3">
         <v>400</v>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,10 +1423,10 @@
         <v>-300</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-300</v>
       </c>
       <c r="G20" s="3">
         <v>-300</v>
@@ -1401,7 +1435,7 @@
         <v>-300</v>
       </c>
       <c r="I20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J20" s="3">
         <v>-400</v>
@@ -1410,7 +1444,7 @@
         <v>-400</v>
       </c>
       <c r="L20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="M20" s="3">
         <v>-300</v>
@@ -1437,13 +1471,16 @@
         <v>-300</v>
       </c>
       <c r="U20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V20" s="3">
         <v>-900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>100</v>
@@ -1590,20 +1633,20 @@
         <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>200</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
         <v>100</v>
       </c>
@@ -1623,13 +1666,16 @@
         <v>100</v>
       </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1670,11 +1716,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1685,13 +1731,16 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>100</v>
@@ -1794,11 +1846,11 @@
         <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
         <v>100</v>
       </c>
@@ -1809,13 +1861,16 @@
         <v>100</v>
       </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>100</v>
@@ -1856,11 +1911,11 @@
         <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
         <v>100</v>
       </c>
@@ -1871,13 +1926,16 @@
         <v>100</v>
       </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,10 +2203,10 @@
         <v>300</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>300</v>
       </c>
       <c r="G32" s="3">
         <v>300</v>
@@ -2145,7 +2215,7 @@
         <v>300</v>
       </c>
       <c r="I32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J32" s="3">
         <v>400</v>
@@ -2154,7 +2224,7 @@
         <v>400</v>
       </c>
       <c r="L32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M32" s="3">
         <v>300</v>
@@ -2181,13 +2251,16 @@
         <v>300</v>
       </c>
       <c r="U32" s="3">
+        <v>300</v>
+      </c>
+      <c r="V32" s="3">
         <v>900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>100</v>
@@ -2228,11 +2301,11 @@
         <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
         <v>100</v>
       </c>
@@ -2243,13 +2316,16 @@
         <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>100</v>
@@ -2352,11 +2431,11 @@
         <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
         <v>100</v>
       </c>
@@ -2367,80 +2446,86 @@
         <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,132 +2573,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>7100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>3300</v>
       </c>
       <c r="H41" s="3">
         <v>3300</v>
       </c>
       <c r="I41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4000</v>
-      </c>
-      <c r="R41" s="3">
-        <v>4200</v>
       </c>
       <c r="S41" s="3">
         <v>4200</v>
       </c>
       <c r="T41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U41" s="3">
         <v>5600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E42" s="3">
         <v>16200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>13200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>7800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>9400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2939,7 +3047,7 @@
         <v>1100</v>
       </c>
       <c r="H48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I48" s="3">
         <v>1200</v>
@@ -2975,16 +3083,19 @@
         <v>1200</v>
       </c>
       <c r="T48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="U48" s="3">
         <v>1300</v>
       </c>
       <c r="V48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E54" s="3">
         <v>62900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>60400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>59400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>56300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>54900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>54800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>55300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>53700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>53200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>56500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>56000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>56500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>53700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>55700</v>
-      </c>
-      <c r="T54" s="3">
-        <v>57600</v>
       </c>
       <c r="U54" s="3">
         <v>57600</v>
       </c>
       <c r="V54" s="3">
+        <v>57600</v>
+      </c>
+      <c r="W54" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E66" s="3">
         <v>50800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>48200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>47300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>44300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>42700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>42100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>45100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>44600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>45100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>42500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>44500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>46200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>46100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4304,61 +4478,64 @@
         <v>9500</v>
       </c>
       <c r="E72" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="F72" s="3">
         <v>9600</v>
       </c>
       <c r="G72" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H72" s="3">
         <v>9500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>9200</v>
       </c>
       <c r="M72" s="3">
         <v>9200</v>
       </c>
       <c r="N72" s="3">
+        <v>9200</v>
+      </c>
+      <c r="O72" s="3">
         <v>9000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8800</v>
-      </c>
-      <c r="S72" s="3">
-        <v>8700</v>
       </c>
       <c r="T72" s="3">
         <v>8700</v>
       </c>
       <c r="U72" s="3">
+        <v>8700</v>
+      </c>
+      <c r="V72" s="3">
         <v>8600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E76" s="3">
         <v>12000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>11700</v>
       </c>
       <c r="M76" s="3">
         <v>11700</v>
       </c>
       <c r="N76" s="3">
+        <v>11700</v>
+      </c>
+      <c r="O76" s="3">
         <v>11500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>100</v>
@@ -4776,11 +4971,11 @@
         <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
         <v>100</v>
       </c>
@@ -4791,13 +4986,16 @@
         <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VERF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VERF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>VERF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,108 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,10 +777,10 @@
         <v>400</v>
       </c>
       <c r="F8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H8" s="3">
         <v>500</v>
@@ -781,19 +789,19 @@
         <v>500</v>
       </c>
       <c r="J8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L8" s="3">
         <v>600</v>
       </c>
       <c r="M8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O8" s="3">
         <v>500</v>
@@ -822,8 +830,14 @@
       <c r="W8" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +901,14 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +972,14 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,16 +1311,18 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1324,22 +1378,28 @@
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>400</v>
+      </c>
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>400</v>
       </c>
       <c r="H18" s="3">
         <v>400</v>
@@ -1348,19 +1408,19 @@
         <v>400</v>
       </c>
       <c r="J18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L18" s="3">
         <v>500</v>
       </c>
       <c r="M18" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N18" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O18" s="3">
         <v>400</v>
@@ -1389,8 +1449,14 @@
       <c r="W18" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1426,31 +1494,31 @@
         <v>-300</v>
       </c>
       <c r="F20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G20" s="3">
         <v>-300</v>
       </c>
       <c r="H20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I20" s="3">
         <v>-300</v>
       </c>
       <c r="J20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L20" s="3">
         <v>-400</v>
       </c>
       <c r="M20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O20" s="3">
         <v>-300</v>
@@ -1474,13 +1542,19 @@
         <v>-300</v>
       </c>
       <c r="V20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X20" s="3">
         <v>-900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1618,14 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,22 +1689,28 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>100</v>
@@ -1636,13 +1722,13 @@
         <v>100</v>
       </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>200</v>
@@ -1651,7 +1737,7 @@
         <v>100</v>
       </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="3">
         <v>100</v>
@@ -1669,13 +1755,19 @@
         <v>100</v>
       </c>
       <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1719,14 +1811,14 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1734,13 +1826,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,22 +1902,28 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
@@ -1849,14 +1953,14 @@
         <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
       <c r="T26" s="3">
         <v>100</v>
       </c>
@@ -1864,27 +1968,33 @@
         <v>100</v>
       </c>
       <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>100</v>
@@ -1914,14 +2024,14 @@
         <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
       <c r="T27" s="3">
         <v>100</v>
       </c>
@@ -1929,13 +2039,19 @@
         <v>100</v>
       </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2206,31 +2346,31 @@
         <v>300</v>
       </c>
       <c r="F32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G32" s="3">
         <v>300</v>
       </c>
       <c r="H32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I32" s="3">
         <v>300</v>
       </c>
       <c r="J32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L32" s="3">
         <v>400</v>
       </c>
       <c r="M32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O32" s="3">
         <v>300</v>
@@ -2254,27 +2394,33 @@
         <v>300</v>
       </c>
       <c r="V32" s="3">
+        <v>300</v>
+      </c>
+      <c r="W32" s="3">
+        <v>300</v>
+      </c>
+      <c r="X32" s="3">
         <v>900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>100</v>
@@ -2304,14 +2450,14 @@
         <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
       <c r="T33" s="3">
         <v>100</v>
       </c>
@@ -2319,13 +2465,19 @@
         <v>100</v>
       </c>
       <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,22 +2541,28 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>100</v>
@@ -2434,14 +2592,14 @@
         <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
       <c r="T35" s="3">
         <v>100</v>
       </c>
@@ -2449,83 +2607,95 @@
         <v>100</v>
       </c>
       <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,138 +2746,152 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F41" s="3">
         <v>5100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>7700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F42" s="3">
         <v>19400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>16200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>14100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>13200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>8600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>7800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>9100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>8300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>6800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>6000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>6700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>8900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>7800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>3900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>8100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>5600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>8600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>8900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>9400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2955,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +3026,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +3097,14 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3168,14 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3239,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3050,10 +3266,10 @@
         <v>1100</v>
       </c>
       <c r="I48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K48" s="3">
         <v>1200</v>
@@ -3086,16 +3302,22 @@
         <v>1200</v>
       </c>
       <c r="U48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W48" s="3">
         <v>1300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>62200</v>
+      </c>
+      <c r="F54" s="3">
         <v>64300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>62900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>60400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>59400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>56300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>54900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>54800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>55300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>55000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>53700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>53200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>55300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>56500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>56000</v>
       </c>
       <c r="R54" s="3">
         <v>56500</v>
       </c>
       <c r="S54" s="3">
+        <v>56000</v>
+      </c>
+      <c r="T54" s="3">
+        <v>56500</v>
+      </c>
+      <c r="U54" s="3">
         <v>53700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>55700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>57600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>57600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3794,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3861,14 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3932,14 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3729,8 +4003,14 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +4074,14 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4145,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>50100</v>
+      </c>
+      <c r="F66" s="3">
         <v>52300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>50800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>48200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>47300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>44300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>43000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>42700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>43400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>43100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>42100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>41500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>43700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>45100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>44600</v>
       </c>
       <c r="R66" s="3">
         <v>45100</v>
       </c>
       <c r="S66" s="3">
+        <v>44600</v>
+      </c>
+      <c r="T66" s="3">
+        <v>45100</v>
+      </c>
+      <c r="U66" s="3">
         <v>42500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>44500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>46200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>46100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,28 +4811,34 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="E72" s="3">
         <v>9500</v>
       </c>
       <c r="F72" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H72" s="3">
         <v>9600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>9600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>9500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>9400</v>
       </c>
       <c r="J72" s="3">
         <v>9500</v>
@@ -4499,22 +4847,22 @@
         <v>9400</v>
       </c>
       <c r="L72" s="3">
+        <v>9500</v>
+      </c>
+      <c r="M72" s="3">
+        <v>9400</v>
+      </c>
+      <c r="N72" s="3">
         <v>9300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>9200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>9200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>9000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>8900</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>8800</v>
       </c>
       <c r="R72" s="3">
         <v>8900</v>
@@ -4523,19 +4871,25 @@
         <v>8800</v>
       </c>
       <c r="T72" s="3">
+        <v>8900</v>
+      </c>
+      <c r="U72" s="3">
+        <v>8800</v>
+      </c>
+      <c r="V72" s="3">
         <v>8700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>8700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>8600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,52 +5095,58 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E76" s="3">
         <v>12100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G76" s="3">
         <v>12000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>12200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>12100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>12000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>11900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>11400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>11300</v>
       </c>
       <c r="R76" s="3">
         <v>11400</v>
@@ -4783,19 +5155,25 @@
         <v>11300</v>
       </c>
       <c r="T76" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="U76" s="3">
         <v>11300</v>
       </c>
       <c r="V76" s="3">
+        <v>11200</v>
+      </c>
+      <c r="W76" s="3">
+        <v>11300</v>
+      </c>
+      <c r="X76" s="3">
         <v>11500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,92 +5237,104 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>100</v>
@@ -4974,14 +5364,14 @@
         <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
       <c r="T81" s="3">
         <v>100</v>
       </c>
@@ -4989,13 +5379,19 @@
         <v>100</v>
       </c>
       <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5837,14 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5908,14 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6148,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +6219,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6530,14 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6601,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6672,14 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6741,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VERF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VERF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>VERF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,111 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -783,7 +786,7 @@
         <v>400</v>
       </c>
       <c r="H8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>500</v>
@@ -795,7 +798,7 @@
         <v>500</v>
       </c>
       <c r="L8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M8" s="3">
         <v>600</v>
@@ -804,7 +807,7 @@
         <v>600</v>
       </c>
       <c r="O8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P8" s="3">
         <v>500</v>
@@ -836,8 +839,11 @@
       <c r="Y8" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1325,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1384,8 +1410,11 @@
       <c r="Y17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1396,13 +1425,13 @@
         <v>400</v>
       </c>
       <c r="F18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G18" s="3">
         <v>300</v>
       </c>
       <c r="H18" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I18" s="3">
         <v>400</v>
@@ -1414,7 +1443,7 @@
         <v>400</v>
       </c>
       <c r="L18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M18" s="3">
         <v>500</v>
@@ -1423,7 +1452,7 @@
         <v>500</v>
       </c>
       <c r="O18" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P18" s="3">
         <v>400</v>
@@ -1455,8 +1484,11 @@
       <c r="Y18" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,13 +1514,14 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
         <v>-300</v>
@@ -1500,10 +1533,10 @@
         <v>-300</v>
       </c>
       <c r="H20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-300</v>
       </c>
       <c r="J20" s="3">
         <v>-300</v>
@@ -1512,7 +1545,7 @@
         <v>-300</v>
       </c>
       <c r="L20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M20" s="3">
         <v>-400</v>
@@ -1521,7 +1554,7 @@
         <v>-400</v>
       </c>
       <c r="O20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P20" s="3">
         <v>-300</v>
@@ -1548,13 +1581,16 @@
         <v>-300</v>
       </c>
       <c r="X20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1624,8 +1660,11 @@
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,25 +1734,28 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>100</v>
@@ -1728,20 +1770,20 @@
         <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>200</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
         <v>100</v>
       </c>
@@ -1761,13 +1803,16 @@
         <v>100</v>
       </c>
       <c r="X23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1817,11 +1862,11 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1832,13 +1877,16 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-200</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,16 +1956,19 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1926,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
@@ -1959,11 +2010,11 @@
         <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
       <c r="U26" s="3">
         <v>100</v>
       </c>
@@ -1974,21 +2025,24 @@
         <v>100</v>
       </c>
       <c r="X26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1997,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
@@ -2030,11 +2084,11 @@
         <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
         <v>100</v>
       </c>
@@ -2045,13 +2099,16 @@
         <v>100</v>
       </c>
       <c r="X27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,13 +2400,16 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E32" s="3">
         <v>300</v>
@@ -2352,10 +2421,10 @@
         <v>300</v>
       </c>
       <c r="H32" s="3">
+        <v>300</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>300</v>
       </c>
       <c r="J32" s="3">
         <v>300</v>
@@ -2364,7 +2433,7 @@
         <v>300</v>
       </c>
       <c r="L32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M32" s="3">
         <v>400</v>
@@ -2373,7 +2442,7 @@
         <v>400</v>
       </c>
       <c r="O32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P32" s="3">
         <v>300</v>
@@ -2400,21 +2469,24 @@
         <v>300</v>
       </c>
       <c r="X32" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y32" s="3">
         <v>900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -2423,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>100</v>
@@ -2456,11 +2528,11 @@
         <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
       <c r="U33" s="3">
         <v>100</v>
       </c>
@@ -2471,13 +2543,16 @@
         <v>100</v>
       </c>
       <c r="X33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,16 +2622,19 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -2565,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
@@ -2598,11 +2676,11 @@
         <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
       <c r="U35" s="3">
         <v>100</v>
       </c>
@@ -2613,89 +2691,95 @@
         <v>100</v>
       </c>
       <c r="X35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,150 +2833,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E41" s="3">
         <v>5200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>3300</v>
       </c>
       <c r="K41" s="3">
         <v>3300</v>
       </c>
       <c r="L41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M41" s="3">
         <v>2200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4000</v>
-      </c>
-      <c r="U41" s="3">
-        <v>4200</v>
       </c>
       <c r="V41" s="3">
         <v>4200</v>
       </c>
       <c r="W41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="X41" s="3">
         <v>5600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E42" s="3">
         <v>14300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>19400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>13200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>8600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>8900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>9400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3272,7 +3379,7 @@
         <v>1100</v>
       </c>
       <c r="K48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="L48" s="3">
         <v>1200</v>
@@ -3308,16 +3415,19 @@
         <v>1200</v>
       </c>
       <c r="W48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="X48" s="3">
         <v>1300</v>
       </c>
       <c r="Y48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E54" s="3">
         <v>62600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>62200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>64300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>62900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>60400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>59400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>56300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>54900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>55300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>53700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>53200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>55300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>56500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>56000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>56500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>53700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>55700</v>
-      </c>
-      <c r="W54" s="3">
-        <v>57600</v>
       </c>
       <c r="X54" s="3">
         <v>57600</v>
       </c>
       <c r="Y54" s="3">
+        <v>57600</v>
+      </c>
+      <c r="Z54" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3867,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4071,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4009,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E66" s="3">
         <v>50400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>50100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>52300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>50800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>48200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>47300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>44300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>42700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>42100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>41500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>45100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>44600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>45100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>42500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>44500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>46200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>46100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,16 +4987,19 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E72" s="3">
         <v>9600</v>
-      </c>
-      <c r="E72" s="3">
-        <v>9500</v>
       </c>
       <c r="F72" s="3">
         <v>9500</v>
@@ -4835,61 +5008,64 @@
         <v>9500</v>
       </c>
       <c r="H72" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="I72" s="3">
         <v>9600</v>
       </c>
       <c r="J72" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K72" s="3">
         <v>9500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9300</v>
-      </c>
-      <c r="O72" s="3">
-        <v>9200</v>
       </c>
       <c r="P72" s="3">
         <v>9200</v>
       </c>
       <c r="Q72" s="3">
+        <v>9200</v>
+      </c>
+      <c r="R72" s="3">
         <v>9000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8800</v>
-      </c>
-      <c r="V72" s="3">
-        <v>8700</v>
       </c>
       <c r="W72" s="3">
         <v>8700</v>
       </c>
       <c r="X72" s="3">
+        <v>8700</v>
+      </c>
+      <c r="Y72" s="3">
         <v>8600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12200</v>
-      </c>
-      <c r="E76" s="3">
-        <v>12100</v>
       </c>
       <c r="F76" s="3">
         <v>12100</v>
       </c>
       <c r="G76" s="3">
+        <v>12100</v>
+      </c>
+      <c r="H76" s="3">
         <v>12000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>11700</v>
       </c>
       <c r="P76" s="3">
         <v>11700</v>
       </c>
       <c r="Q76" s="3">
+        <v>11700</v>
+      </c>
+      <c r="R76" s="3">
         <v>11500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,92 +5431,98 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -5337,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>100</v>
@@ -5370,11 +5564,11 @@
         <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
       <c r="U81" s="3">
         <v>100</v>
       </c>
@@ -5385,13 +5579,16 @@
         <v>100</v>
       </c>
       <c r="X81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5914,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6607,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6747,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VERF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VERF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>VERF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,141 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
@@ -789,25 +808,25 @@
         <v>400</v>
       </c>
       <c r="I8" s="3">
+        <v>400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
+        <v>400</v>
+      </c>
+      <c r="L8" s="3">
+        <v>400</v>
+      </c>
+      <c r="M8" s="3">
+        <v>400</v>
+      </c>
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
-      </c>
-      <c r="K8" s="3">
-        <v>500</v>
-      </c>
-      <c r="L8" s="3">
-        <v>500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>600</v>
-      </c>
-      <c r="N8" s="3">
-        <v>600</v>
-      </c>
-      <c r="O8" s="3">
-        <v>600</v>
       </c>
       <c r="P8" s="3">
         <v>500</v>
@@ -816,13 +835,13 @@
         <v>500</v>
       </c>
       <c r="R8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U8" s="3">
         <v>500</v>
@@ -842,8 +861,23 @@
       <c r="Z8" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +950,23 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1039,23 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1082,13 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1161,23 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1250,23 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1339,23 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1428,23 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1468,13 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1354,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1413,25 +1547,40 @@
       <c r="Z17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>500</v>
+      </c>
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>300</v>
       </c>
       <c r="I18" s="3">
         <v>400</v>
@@ -1443,16 +1592,16 @@
         <v>400</v>
       </c>
       <c r="L18" s="3">
+        <v>300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>300</v>
+      </c>
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
-        <v>500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>500</v>
-      </c>
       <c r="O18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P18" s="3">
         <v>400</v>
@@ -1461,13 +1610,13 @@
         <v>400</v>
       </c>
       <c r="R18" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S18" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T18" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U18" s="3">
         <v>400</v>
@@ -1487,8 +1636,23 @@
       <c r="Z18" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,13 +1679,18 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
         <v>-300</v>
@@ -1533,7 +1702,7 @@
         <v>-300</v>
       </c>
       <c r="H20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I20" s="3">
         <v>-400</v>
@@ -1548,13 +1717,13 @@
         <v>-300</v>
       </c>
       <c r="M20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N20" s="3">
         <v>-400</v>
       </c>
       <c r="O20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="P20" s="3">
         <v>-300</v>
@@ -1563,13 +1732,13 @@
         <v>-300</v>
       </c>
       <c r="R20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="U20" s="3">
         <v>-300</v>
@@ -1584,13 +1753,28 @@
         <v>-300</v>
       </c>
       <c r="Y20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AE20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1663,8 +1847,23 @@
       <c r="Z21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,28 +1936,43 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>100</v>
@@ -1767,38 +1981,38 @@
         <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>100</v>
-      </c>
       <c r="W23" s="3">
         <v>100</v>
       </c>
@@ -1806,18 +2020,33 @@
         <v>100</v>
       </c>
       <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1865,28 +2094,43 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>-200</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,40 +2203,55 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
@@ -2013,60 +2272,75 @@
         <v>100</v>
       </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>100</v>
-      </c>
-      <c r="X26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>100</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>100</v>
@@ -2087,28 +2361,43 @@
         <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>100</v>
-      </c>
-      <c r="X27" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2470,23 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2559,23 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2648,23 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,13 +2737,28 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
         <v>300</v>
@@ -2421,7 +2770,7 @@
         <v>300</v>
       </c>
       <c r="H32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I32" s="3">
         <v>400</v>
@@ -2436,13 +2785,13 @@
         <v>300</v>
       </c>
       <c r="M32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N32" s="3">
         <v>400</v>
       </c>
       <c r="O32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P32" s="3">
         <v>300</v>
@@ -2451,13 +2800,13 @@
         <v>300</v>
       </c>
       <c r="R32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U32" s="3">
         <v>300</v>
@@ -2472,45 +2821,60 @@
         <v>300</v>
       </c>
       <c r="Y32" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD32" s="3">
         <v>900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AE32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>100</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
@@ -2531,28 +2895,43 @@
         <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>100</v>
-      </c>
-      <c r="X33" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,40 +3004,55 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>100</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
@@ -2679,107 +3073,137 @@
         <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>100</v>
-      </c>
-      <c r="X35" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +3230,13 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,156 +3263,191 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I41" s="3">
         <v>5600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="J41" s="3">
         <v>5200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="K41" s="3">
         <v>4300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="L41" s="3">
         <v>5100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="M41" s="3">
         <v>7100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="N41" s="3">
         <v>6000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="O41" s="3">
         <v>5300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="P41" s="3">
         <v>3300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="Q41" s="3">
         <v>3300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="R41" s="3">
         <v>2200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="S41" s="3">
         <v>3000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="T41" s="3">
         <v>3200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="U41" s="3">
         <v>2300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="V41" s="3">
         <v>2700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="W41" s="3">
         <v>3000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="X41" s="3">
         <v>4500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="Y41" s="3">
         <v>7700</v>
-      </c>
-      <c r="U41" s="3">
-        <v>4000</v>
-      </c>
-      <c r="V41" s="3">
-        <v>4200</v>
-      </c>
-      <c r="W41" s="3">
-        <v>4200</v>
-      </c>
-      <c r="X41" s="3">
-        <v>5600</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>4100</v>
       </c>
       <c r="Z41" s="3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G42" s="3">
+        <v>16700</v>
+      </c>
+      <c r="H42" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I42" s="3">
         <v>15400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="J42" s="3">
         <v>14300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="K42" s="3">
         <v>14900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="L42" s="3">
         <v>19400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="M42" s="3">
         <v>16200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="N42" s="3">
         <v>14100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="O42" s="3">
         <v>13200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="P42" s="3">
         <v>8600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="Q42" s="3">
         <v>7800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="R42" s="3">
         <v>9100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="S42" s="3">
         <v>8300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="T42" s="3">
         <v>6800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="U42" s="3">
         <v>6000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="V42" s="3">
         <v>6700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="W42" s="3">
         <v>8900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="X42" s="3">
         <v>7800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="Y42" s="3">
         <v>3900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="Z42" s="3">
         <v>8100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="AA42" s="3">
         <v>5600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="AB42" s="3">
         <v>8600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="AC42" s="3">
         <v>8900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AD42" s="3">
         <v>9400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AE42" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3520,23 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3609,23 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3698,23 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3787,23 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,19 +3876,34 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G48" s="3">
         <v>1100</v>
@@ -3382,19 +3921,19 @@
         <v>1100</v>
       </c>
       <c r="L48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="N48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="O48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="P48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Q48" s="3">
         <v>1200</v>
@@ -3418,16 +3957,31 @@
         <v>1200</v>
       </c>
       <c r="X48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC48" s="3">
         <v>1300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AD48" s="3">
         <v>1300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AE48" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +4054,23 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +4143,23 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +4232,23 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +4321,23 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +4410,112 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>61800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>66800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>66100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>64300</v>
+      </c>
+      <c r="I54" s="3">
         <v>62700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="J54" s="3">
         <v>62600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="K54" s="3">
         <v>62200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="L54" s="3">
         <v>64300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="M54" s="3">
         <v>62900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="N54" s="3">
         <v>60400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="O54" s="3">
         <v>59400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="P54" s="3">
         <v>56300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="Q54" s="3">
         <v>54900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="R54" s="3">
         <v>54800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="S54" s="3">
         <v>55300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="T54" s="3">
         <v>55000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="U54" s="3">
         <v>53700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="V54" s="3">
         <v>53200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="W54" s="3">
         <v>55300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="X54" s="3">
         <v>56500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="Y54" s="3">
         <v>56000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="Z54" s="3">
         <v>56500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="AA54" s="3">
         <v>53700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="AB54" s="3">
         <v>55700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="AC54" s="3">
         <v>57600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AD54" s="3">
         <v>57600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AE54" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4542,13 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4575,13 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4000,8 +4654,23 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,8 +4743,23 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4148,8 +4832,23 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,8 +4921,23 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +5010,23 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +5099,23 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +5188,23 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +5277,23 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +5366,112 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>55000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>54400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>52500</v>
+      </c>
+      <c r="I66" s="3">
         <v>50700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="J66" s="3">
         <v>50400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="K66" s="3">
         <v>50100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="L66" s="3">
         <v>52300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="M66" s="3">
         <v>50800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="N66" s="3">
         <v>48200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="O66" s="3">
         <v>47300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="P66" s="3">
         <v>44300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="Q66" s="3">
         <v>43000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="R66" s="3">
         <v>42700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="S66" s="3">
         <v>43400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="T66" s="3">
         <v>43100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="U66" s="3">
         <v>42100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="V66" s="3">
         <v>41500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="W66" s="3">
         <v>43700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="X66" s="3">
         <v>45100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="Y66" s="3">
         <v>44600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="Z66" s="3">
         <v>45100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="AA66" s="3">
         <v>42500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="AB66" s="3">
         <v>44500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AC66" s="3">
         <v>46200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AD66" s="3">
         <v>46100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AE66" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +5498,13 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +5577,23 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5666,23 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5755,23 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,19 +5844,34 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9400</v>
+        <v>9900</v>
       </c>
       <c r="E72" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="F72" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="G72" s="3">
         <v>9500</v>
@@ -5011,7 +5880,7 @@
         <v>9500</v>
       </c>
       <c r="I72" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="J72" s="3">
         <v>9600</v>
@@ -5020,52 +5889,67 @@
         <v>9500</v>
       </c>
       <c r="L72" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="M72" s="3">
         <v>9500</v>
       </c>
       <c r="N72" s="3">
+        <v>9600</v>
+      </c>
+      <c r="O72" s="3">
+        <v>9600</v>
+      </c>
+      <c r="P72" s="3">
+        <v>9500</v>
+      </c>
+      <c r="Q72" s="3">
         <v>9400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
+        <v>9500</v>
+      </c>
+      <c r="S72" s="3">
+        <v>9400</v>
+      </c>
+      <c r="T72" s="3">
         <v>9300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="U72" s="3">
         <v>9200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="V72" s="3">
         <v>9200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="W72" s="3">
         <v>9000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="X72" s="3">
         <v>8900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="Y72" s="3">
         <v>8800</v>
-      </c>
-      <c r="U72" s="3">
-        <v>8900</v>
-      </c>
-      <c r="V72" s="3">
-        <v>8800</v>
-      </c>
-      <c r="W72" s="3">
-        <v>8700</v>
-      </c>
-      <c r="X72" s="3">
-        <v>8700</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>8600</v>
       </c>
       <c r="Z72" s="3">
         <v>8900</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>8800</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>8700</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>8700</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>8600</v>
+      </c>
+      <c r="AE72" s="3">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +6022,23 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +6111,23 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,8 +6200,23 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5295,73 +6224,88 @@
         <v>12000</v>
       </c>
       <c r="E76" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>11800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>11800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I76" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J76" s="3">
         <v>12200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="K76" s="3">
         <v>12100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="L76" s="3">
         <v>12100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="M76" s="3">
         <v>12000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="N76" s="3">
         <v>12200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="O76" s="3">
         <v>12100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="P76" s="3">
         <v>12000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="Q76" s="3">
         <v>11900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="R76" s="3">
         <v>12100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="S76" s="3">
         <v>12000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="T76" s="3">
         <v>11800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="U76" s="3">
         <v>11700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="V76" s="3">
         <v>11700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="W76" s="3">
         <v>11500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="X76" s="3">
         <v>11400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="Y76" s="3">
         <v>11300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="Z76" s="3">
         <v>11400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="AA76" s="3">
         <v>11300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="AB76" s="3">
         <v>11200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AC76" s="3">
         <v>11300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AD76" s="3">
         <v>11500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AE76" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,119 +6378,149 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>100</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
@@ -5567,28 +6541,43 @@
         <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>100</v>
-      </c>
-      <c r="X81" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +6604,13 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +6683,23 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +6772,23 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6861,23 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6950,23 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +7039,23 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +7128,23 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6133,8 +7217,23 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +7260,13 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +7339,23 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +7428,23 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +7517,23 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +7606,23 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +7649,13 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +7728,23 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +7817,23 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +7906,23 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7995,23 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6855,8 +8084,23 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +8173,23 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7001,6 +8260,21 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
